--- a/WalmartCasosPrueba.xlsx
+++ b/WalmartCasosPrueba.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvvq373\repo\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD946431-6CB7-4EA1-B68D-A8F55D93352C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E580FCF-1F90-49C6-BE79-399881A585D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11570" yWindow="-13636" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="WishProductSearch" sheetId="5" r:id="rId1"/>
-    <sheet name="WishVerificarCarrito" sheetId="6" r:id="rId2"/>
+    <sheet name="ProductSearch" sheetId="5" r:id="rId1"/>
+    <sheet name="VerificarCarrito" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t>verificar la pagina</t>
-  </si>
-  <si>
-    <t>Agregar tres articulo a la bolsa</t>
-  </si>
-  <si>
-    <t>El icono de la bolsa indica tres productos</t>
   </si>
   <si>
     <t>navegar a la pagina principal</t>
@@ -109,26 +103,31 @@
 precioArticulo;//</t>
   </si>
   <si>
+    <t>Buscar y agregar x num de articulos a la bolsa</t>
+  </si>
+  <si>
+    <t>Agregar x articulos a la bolsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LandingPage
+walmartLogo; //css="header_logo__2cAck"
+initialProducts; //id="scrollContainer"
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">SearchPage: 
-campoBusqueda: //css="div.NavbarSearchBar__SearchBar-s8znb4-1.eWebgY"
-iconoBusqueda; //css="div.WishButtons__WishButton-sc-13cvktr-0.kHOHoo"
+searchBar; //css="search-bar-desktop_searchBarContainer__eBcmI"
+searchIcon; //css="search-icon"
 ResultsPage:
-listaArticulos; //[class*='FeedTileWidthWrapper-sc']
-nombreArticulo; //
-precioArticulo; //[class*='FeedTileWidthWrapper-sc'] [class*='ActualPrice']
+listaArticulos; //[class*='col']
+nombreArticulo; [class*=product_name] p div
+marcaArticulo;  [class*=product_brand] a
+precioArticulo; //[class*=product_price_] p
 ProductPage:
-nombreArticulo;//
-precioArticulo; //
-tallaArticulo; //
-colorArticulo; //
-botonComprar; //
-</t>
-  </si>
-  <si>
-    <t>Buscar y agregar x num de articulos a la bolsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LandingPage
+nombreArticulo;//[class*=productName]
+marcaArticulo; //[class*=brandName] a
+precioArticulo; // [class*=offer-details] h4
+addToCart; //addToCartButton
 </t>
   </si>
 </sst>
@@ -533,7 +532,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.05"/>
@@ -565,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -588,19 +587,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="43.2">
+    <row r="7" spans="1:5" ht="57.6">
       <c r="A7" s="5">
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="273.60000000000002">
@@ -608,16 +607,14 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -699,10 +696,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -727,14 +724,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="72">
@@ -742,14 +739,14 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">

--- a/WalmartCasosPrueba.xlsx
+++ b/WalmartCasosPrueba.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvvq373\repo\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E580FCF-1F90-49C6-BE79-399881A585D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6568B70A-24D0-419C-824B-875196B565C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ProductSearch" sheetId="5" r:id="rId1"/>
-    <sheet name="VerificarCarrito" sheetId="6" r:id="rId2"/>
+    <sheet name="ProductSearchAdd" sheetId="5" r:id="rId1"/>
+    <sheet name="CartReviewDelete" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -64,46 +64,13 @@
     <t>navegar a la pagina principal</t>
   </si>
   <si>
-    <t>HomePage
-promoBanner;//css="NewUserGiftSplashBanner__NewUserGiftSplashWrapper-sc-1bc6jj4-6.jebiAk"
-closeButton; //css="div.SvgUtils__SvgWrapper-sc-1y6nr70-0.jLUrJe"
-bonusModal;//css=div.DailyLoginBonusPopup__MainWrapper-sc-582bns-3.wjmtk
-seguirComprandoButton;//css="div.WishButtons__WishButton-sc-13cvktr-0.hwfrLv"
-loMasPopularBanner;//css="div.SideTabBar__SideBarTextContainer-sc-18isgdb-3.btupPB"</t>
-  </si>
-  <si>
-    <t>producto:case para iphone
-producto: tenis adidas
-numeroProducto: x
-elegir primer producto de la lista
-Articulo:
-nombre, 
-precio
-descripcion
-talla
-color</t>
-  </si>
-  <si>
     <t>Navegar al carrito</t>
   </si>
   <si>
-    <t>Verificar que los articulos seleccionados estan ahí</t>
-  </si>
-  <si>
     <t>Validar la informacion de los productos</t>
   </si>
   <si>
     <t>productos previamente agregados</t>
-  </si>
-  <si>
-    <t>CartPage:
-listaArticulos;//
-mosaicoArticulo;//
-nombreArticulo;//
-precioArticulo;//</t>
-  </si>
-  <si>
-    <t>Buscar y agregar x num de articulos a la bolsa</t>
   </si>
   <si>
     <t>Agregar x articulos a la bolsa</t>
@@ -113,6 +80,9 @@
 walmartLogo; //css="header_logo__2cAck"
 initialProducts; //id="scrollContainer"
 </t>
+  </si>
+  <si>
+    <t>Verificar que los articulos seleccionados estan ahí y elminar uno</t>
   </si>
   <si>
     <t xml:space="preserve">SearchPage: 
@@ -128,7 +98,29 @@
 marcaArticulo; //[class*=brandName] a
 precioArticulo; // [class*=offer-details] h4
 addToCart; //addToCartButton
+productAddedValidation; //added-to-cart
 </t>
+  </si>
+  <si>
+    <t>CartPage:
+botonCarrito: //go-to-cart
+listaArticulos;//
+mosaicoArticulo;//
+nombreArticulo;//
+precioArticulo;//</t>
+  </si>
+  <si>
+    <t>Buscar y agregar 1 articulo a la bolsa</t>
+  </si>
+  <si>
+    <t>producto:case para iphone
+producto: tenis adidas
+numeroProducto: 1
+elegir segundo producto de la lista
+Producto: salsa
+Nombre articulo
+Marca
+precio</t>
   </si>
 </sst>
 </file>
@@ -532,138 +524,6 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.05"/>
-  <cols>
-    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="42" style="2" customWidth="1"/>
-    <col min="4" max="4" width="47" style="2" customWidth="1"/>
-    <col min="5" max="5" width="98.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="29" style="2" customWidth="1"/>
-    <col min="8" max="26" width="10.6640625" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="17.33203125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45.1" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="57.6">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="273.60000000000002">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="5">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="30.05" customHeight="1">
-      <c r="A10" s="2">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82231C9B-F145-4305-AC6B-50E86525E493}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -696,10 +556,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -719,7 +579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="115.2">
+    <row r="7" spans="1:5" ht="57.6">
       <c r="A7" s="5">
         <v>1</v>
       </c>
@@ -731,21 +591,21 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="72">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="273.60000000000002">
       <c r="A8" s="5">
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -753,6 +613,10 @@
       <c r="A9" s="5">
         <v>3</v>
       </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" ht="30.05" customHeight="1">
       <c r="A10" s="2">
@@ -785,4 +649,125 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82231C9B-F145-4305-AC6B-50E86525E493}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.05"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="42" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47" style="2" customWidth="1"/>
+    <col min="5" max="5" width="98.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29" style="2" customWidth="1"/>
+    <col min="8" max="26" width="10.6640625" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="17.33203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45.1" customHeight="1">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="86.4">
+      <c r="A7" s="5">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.05" customHeight="1">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WalmartCasosPrueba.xlsx
+++ b/WalmartCasosPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvvq373\repo\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6568B70A-24D0-419C-824B-875196B565C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1FA33F-9976-49EA-B2FC-A95053104E59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/WalmartCasosPrueba.xlsx
+++ b/WalmartCasosPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvvq373\repo\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1FA33F-9976-49EA-B2FC-A95053104E59}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20A196B-60CE-4584-BC18-45B34B8C95A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,18 +76,39 @@
     <t>Agregar x articulos a la bolsa</t>
   </si>
   <si>
+    <t>Verificar que los articulos seleccionados estan ahí y elminar uno</t>
+  </si>
+  <si>
+    <t>CartPage:
+botonCarrito: //go-to-cart
+listaArticulos;//
+mosaicoArticulo;//
+nombreArticulo;//
+precioArticulo;//</t>
+  </si>
+  <si>
+    <t>Buscar y agregar 1 articulo a la bolsa</t>
+  </si>
+  <si>
+    <t>producto:case para iphone
+producto: tenis adidas
+numeroProducto: 1
+elegir segundo producto de la lista
+Producto: salsa
+Nombre articulo
+Marca
+precio</t>
+  </si>
+  <si>
     <t xml:space="preserve">LandingPage
-walmartLogo; //css="header_logo__2cAck"
+walmartLogo; //css=[class*=header_walmartLogo]
 initialProducts; //id="scrollContainer"
 </t>
   </si>
   <si>
-    <t>Verificar que los articulos seleccionados estan ahí y elminar uno</t>
-  </si>
-  <si>
     <t xml:space="preserve">SearchPage: 
-searchBar; //css="search-bar-desktop_searchBarContainer__eBcmI"
-searchIcon; //css="search-icon"
+searchBar; //css=[class*=searchBarContainer] input
+searchIcon; //css=search-icon
 ResultsPage:
 listaArticulos; //[class*='col']
 nombreArticulo; [class*=product_name] p div
@@ -100,27 +121,6 @@
 addToCart; //addToCartButton
 productAddedValidation; //added-to-cart
 </t>
-  </si>
-  <si>
-    <t>CartPage:
-botonCarrito: //go-to-cart
-listaArticulos;//
-mosaicoArticulo;//
-nombreArticulo;//
-precioArticulo;//</t>
-  </si>
-  <si>
-    <t>Buscar y agregar 1 articulo a la bolsa</t>
-  </si>
-  <si>
-    <t>producto:case para iphone
-producto: tenis adidas
-numeroProducto: 1
-elegir segundo producto de la lista
-Producto: salsa
-Nombre articulo
-Marca
-precio</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="273.60000000000002">
@@ -603,10 +603,10 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -723,7 +723,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/WalmartCasosPrueba.xlsx
+++ b/WalmartCasosPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvvq373\repo\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20A196B-60CE-4584-BC18-45B34B8C95A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB320AD2-23CB-4FA4-9DF2-BE31B05CB0C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,14 +79,6 @@
     <t>Verificar que los articulos seleccionados estan ahí y elminar uno</t>
   </si>
   <si>
-    <t>CartPage:
-botonCarrito: //go-to-cart
-listaArticulos;//
-mosaicoArticulo;//
-nombreArticulo;//
-precioArticulo;//</t>
-  </si>
-  <si>
     <t>Buscar y agregar 1 articulo a la bolsa</t>
   </si>
   <si>
@@ -106,20 +98,28 @@
 </t>
   </si>
   <si>
+    <t>CartPage:
+botonCarrito: //css="[data-automation-id='go-to-cart']"
+listaArticulos;//
+mosaicoArticulo;//
+nombreArticulo;//
+precioArticulo;//</t>
+  </si>
+  <si>
     <t xml:space="preserve">SearchPage: 
-searchBar; //css=[class*=searchBarContainer] input
-searchIcon; //css=search-icon
+searchBar; //css="[class*=searchBarContainer] input"
+searchIcon; //css="button[data-automation-id='search-icon']"
 ResultsPage:
 listaArticulos; //[class*='col']
-nombreArticulo; [class*=product_name] p div
-marcaArticulo;  [class*=product_brand] a
-precioArticulo; //[class*=product_price_] p
+nombreArticulo; //css="[class*=product_name] p div"
+marcaArticulo;  //css="[class*=product_brand] a"
+precioArticulo; //css="[class*=product_price_] p"
 ProductPage:
-nombreArticulo;//[class*=productName]
-marcaArticulo; //[class*=brandName] a
-precioArticulo; // [class*=offer-details] h4
-addToCart; //addToCartButton
-productAddedValidation; //added-to-cart
+nombreArticulo;//css="[data-automation-id='product-name'] div"
+marcaArticulo; //css="[data-automation-id='brand'] a"
+precioArticulo; //css="[data-automation-id='list-price'] span"
+addToCart; //css="[data-automation-id='add-button']"
+productAddedValidation; //css="[data-automation-id='add-button']"
 </t>
   </si>
 </sst>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="273.60000000000002">
@@ -603,7 +603,7 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>20</v>
@@ -656,7 +656,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.05"/>
@@ -723,7 +723,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">

--- a/WalmartCasosPrueba.xlsx
+++ b/WalmartCasosPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvvq373\repo\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB320AD2-23CB-4FA4-9DF2-BE31B05CB0C2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B75CFF-6BD9-4A95-A19A-8277EDABD816}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,31 +82,13 @@
     <t>Buscar y agregar 1 articulo a la bolsa</t>
   </si>
   <si>
-    <t>producto:case para iphone
-producto: tenis adidas
-numeroProducto: 1
-elegir segundo producto de la lista
-Producto: salsa
-Nombre articulo
-Marca
-precio</t>
-  </si>
-  <si>
     <t xml:space="preserve">LandingPage
 walmartLogo; //css=[class*=header_walmartLogo]
 initialProducts; //id="scrollContainer"
 </t>
   </si>
   <si>
-    <t>CartPage:
-botonCarrito: //css="[data-automation-id='go-to-cart']"
-listaArticulos;//
-mosaicoArticulo;//
-nombreArticulo;//
-precioArticulo;//</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SearchPage: 
+    <t>SearchPage: 
 searchBar; //css="[class*=searchBarContainer] input"
 searchIcon; //css="button[data-automation-id='search-icon']"
 ResultsPage:
@@ -120,7 +102,26 @@
 precioArticulo; //css="[data-automation-id='list-price'] span"
 addToCart; //css="[data-automation-id='add-button']"
 productAddedValidation; //css="[data-automation-id='add-button']"
-</t>
+botonCarrito: //css="[data-automation-id='add-button']"</t>
+  </si>
+  <si>
+    <t>CartPage:
+verificarProdAgregados; //css="[data-automation-id='added-to-cart']"
+botonCarrito: //css="[data-automation-id='go-to-cart']"
+listaArticulos;//
+mosaicoArticulo;//
+nombreArticulo;//
+precioArticulo;//</t>
+  </si>
+  <si>
+    <t>producto:case para iphone
+producto: tenis adidas
+numeroProducto: 1
+elegir segundo producto de la lista
+Producto: nintendo
+Nombre articulo
+Marca
+precio</t>
   </si>
 </sst>
 </file>
@@ -591,7 +592,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="273.60000000000002">
@@ -603,10 +604,10 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -656,7 +657,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.05"/>
@@ -711,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="86.4">
+    <row r="7" spans="1:5" ht="100.8">
       <c r="A7" s="5">
         <v>1</v>
       </c>

--- a/WalmartCasosPrueba.xlsx
+++ b/WalmartCasosPrueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvvq373\repo\FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B75CFF-6BD9-4A95-A19A-8277EDABD816}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD05C49-3659-4DC7-8CAE-76D1F7AFB4F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13148" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductSearchAdd" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -122,6 +122,16 @@
 Nombre articulo
 Marca
 precio</t>
+  </si>
+  <si>
+    <t>Borrar producto</t>
+  </si>
+  <si>
+    <t>El producto se elimina</t>
+  </si>
+  <si>
+    <t>CartPage:
+deleteButton; //css="[data-automation-id='delete-button']"</t>
   </si>
 </sst>
 </file>
@@ -524,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941B164B-57B5-47A8-B908-90A18B3F7B93}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -656,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82231C9B-F145-4305-AC6B-50E86525E493}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15.05"/>
@@ -727,13 +737,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="30.05">
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="5"/>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="5">
